--- a/1. Projektplanung und Dokumentation/1.1 Zeiterfassung/Zeiterfassung_Musliu_Leon.xlsx
+++ b/1. Projektplanung und Dokumentation/1.1 Zeiterfassung/Zeiterfassung_Musliu_Leon.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni\S5\SOPR\RaytRazor\1. Projektplanung\1.1 Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967736E3-289A-4F50-9268-433485EC09E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BEC8A9-AF0E-4BB0-9C08-FE0753993695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D8EBEC6F-97AA-4447-BC60-E9767B6B54BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{D8EBEC6F-97AA-4447-BC60-E9767B6B54BF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Zeiterfassung" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
+    <sheet name="Zeiterfassung" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="66">
   <si>
     <t>Name:</t>
   </si>
@@ -129,6 +130,111 @@
   </si>
   <si>
     <t>Weekly-Summup-03 Meeting</t>
+  </si>
+  <si>
+    <t>Sprint Review #1</t>
+  </si>
+  <si>
+    <t>Präsenz-Meeting</t>
+  </si>
+  <si>
+    <t>Weekly Meeting #5 abgehalten.</t>
+  </si>
+  <si>
+    <t>Sprint Review #2</t>
+  </si>
+  <si>
+    <t>Demo Präsentation &amp; Sprint Review #3</t>
+  </si>
+  <si>
+    <t>Sprint Review #4</t>
+  </si>
+  <si>
+    <t>Sprint Review #5</t>
+  </si>
+  <si>
+    <t>Product-Release</t>
+  </si>
+  <si>
+    <t>Gesamt:</t>
+  </si>
+  <si>
+    <t>Weekly Meeting #4</t>
+  </si>
+  <si>
+    <t>über SDL2 informieren</t>
+  </si>
+  <si>
+    <t>SDL2 Fenster erstellen</t>
+  </si>
+  <si>
+    <t>über Raytracing informieren</t>
+  </si>
+  <si>
+    <t>Raytracing implementieren</t>
+  </si>
+  <si>
+    <t>Coding &amp; Orga</t>
+  </si>
+  <si>
+    <t>SDL2 DLL in unser Projekt einbinden</t>
+  </si>
+  <si>
+    <t>Alle Raytracing Klassen in das Projekt einbinden &amp; Bugfixes</t>
+  </si>
+  <si>
+    <t>Raytracing anpassen</t>
+  </si>
+  <si>
+    <t>Raytracing verschnellern &amp; Einbinden in das Projekt</t>
+  </si>
+  <si>
+    <t>Raytracing verschnellern</t>
+  </si>
+  <si>
+    <t>Recherche &amp; Coding</t>
+  </si>
+  <si>
+    <t>Dreiecksdarstellung im Raytracer</t>
+  </si>
+  <si>
+    <t>Dreiecksdarstellung im Raytracer verfeinert &amp; Einbinden in das Projekt</t>
+  </si>
+  <si>
+    <t>Zeitaufwand für das Seminar</t>
+  </si>
+  <si>
+    <t>___</t>
+  </si>
+  <si>
+    <t>Recherce</t>
+  </si>
+  <si>
+    <t>Raytracing optimierungen</t>
+  </si>
+  <si>
+    <t>Raytracing optimierungen implementiert</t>
+  </si>
+  <si>
+    <t>Raytracing Klassen angepasst</t>
+  </si>
+  <si>
+    <t>Test-Szenen konstruiert und geraytraced</t>
+  </si>
+  <si>
+    <t>Änderungen angepasst &amp; Einbinden in das Projekt</t>
+  </si>
+  <si>
+    <t>Bugfixes am Raytracer</t>
+  </si>
+  <si>
+    <t>Weitere Anpassungen am Raytracer</t>
+  </si>
+  <si>
+    <t>Konstruieren der Preview Scene aus der 3D-Preview</t>
+  </si>
+  <si>
+    <t>Finale Bugfixes &amp; Zusammensetzen mit dem Team</t>
   </si>
 </sst>
 </file>
@@ -483,11 +589,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2266D5-FA60-44A5-9E76-DDD6759F4ABD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A25EDDD-CE0E-4D64-955D-F29BB8D2CC7C}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="144" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -769,6 +887,533 @@
         <v>30</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>45601</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>45602</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>45603</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>45604</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>45605</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>45609</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>45611</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>45613</v>
+      </c>
+      <c r="B31" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>45614</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>45615</v>
+      </c>
+      <c r="B33" s="2">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>45616</v>
+      </c>
+      <c r="B34" s="2">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>45617</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>45618</v>
+      </c>
+      <c r="B36" s="2">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>45620</v>
+      </c>
+      <c r="B37" s="2">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>45625</v>
+      </c>
+      <c r="B38" s="2">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>45628</v>
+      </c>
+      <c r="B39" s="2">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>45631</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>45633</v>
+      </c>
+      <c r="B41" s="2">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>45636</v>
+      </c>
+      <c r="B42" s="2">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>45639</v>
+      </c>
+      <c r="B43" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>45640</v>
+      </c>
+      <c r="B44" s="2">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>45641</v>
+      </c>
+      <c r="B45" s="2">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45643</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>45645</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>45300</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>45303</v>
+      </c>
+      <c r="B50" s="2">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>45304</v>
+      </c>
+      <c r="B51" s="2">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>45305</v>
+      </c>
+      <c r="B52" s="2">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>45306</v>
+      </c>
+      <c r="B53" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>45308</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>45310</v>
+      </c>
+      <c r="B55" s="2">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>45311</v>
+      </c>
+      <c r="B56" s="2">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>45312</v>
+      </c>
+      <c r="B57" s="2">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>45313</v>
+      </c>
+      <c r="B58" s="2">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>45314</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="2">
+        <f>SUM(B7:B59)</f>
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -778,6 +1423,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100EA32FAADEF28B246BE81F09370D9BDD6" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ee5e8cab159ec08823d71aeff920ea58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bcfc458b-b0e2-47b4-8909-d39697dfebcc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6553d0449cd115c0021964cc0df6b6b1" ns2:_="">
     <xsd:import namespace="bcfc458b-b0e2-47b4-8909-d39697dfebcc"/>
@@ -921,7 +1572,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -930,13 +1581,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9FC6350-6490-4AE5-84BE-162C5C4694A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71F94882-FD0A-418D-8AE4-25897563B4A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -954,19 +1608,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B7CEBEC-8504-4D29-B496-720D2223E402}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9FC6350-6490-4AE5-84BE-162C5C4694A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>